--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamini\eclipse-workspace\Comprehensive-framework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55110625-9446-491F-9002-397ED9CA3C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B5FEBF-21DB-4FE3-90FD-F1CD9DC248A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,13 +186,13 @@
     <t>25</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>23-01-2022</t>
-  </si>
-  <si>
-    <t>nv31@gmail.com</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>24-01-2022</t>
+  </si>
+  <si>
+    <t>nv232@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -951,21 +951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C4913E19633C4488084865B5E80F695" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87fbb1ebceddc42f1a5a7d66b9f04e75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a16323ac-6004-4652-9b47-f8fbbcbcb755" xmlns:ns4="670bef40-1110-41e1-89cf-e9a09d0abced" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1665673215442741f8e1b7f75eab3056" ns3:_="" ns4:_="">
     <xsd:import namespace="a16323ac-6004-4652-9b47-f8fbbcbcb755"/>
@@ -1162,32 +1147,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDB33C6-DF3D-47F7-98AB-7648801EB11E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a16323ac-6004-4652-9b47-f8fbbcbcb755"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="670bef40-1110-41e1-89cf-e9a09d0abced"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3978783-9872-43A5-AE62-4B09DDED00D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE6F297-1033-4604-A604-4626C88BE0D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1204,4 +1179,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3978783-9872-43A5-AE62-4B09DDED00D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDB33C6-DF3D-47F7-98AB-7648801EB11E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a16323ac-6004-4652-9b47-f8fbbcbcb755"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="670bef40-1110-41e1-89cf-e9a09d0abced"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>